--- a/data/Soil Moisture.xlsx
+++ b/data/Soil Moisture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0375f6071d9f66e8/Documents/College/storage/3rd year/3rd 2 sem/soil-ml-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD7EFCBB559F784E7F55E10E59F0A36D5D0F42E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3114CD92-D26C-4C68-8664-6229EFABBAB4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AD7EFCBB559F784E7F55E10E59F0A36D5D0F42E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D42DA964-F511-459F-A5A0-88C85864DF63}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,6 +87,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,10 +203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3001"/>
+  <dimension ref="A1:D3002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2979" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3002" sqref="D3002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -42227,6 +42231,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3002">
+        <v>665.69989869999995</v>
+      </c>
+      <c r="B3002">
+        <v>26.559646539999999</v>
+      </c>
+      <c r="C3002">
+        <v>54.282998689999999</v>
+      </c>
+      <c r="D3002">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/data/Soil Moisture.xlsx
+++ b/data/Soil Moisture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0375f6071d9f66e8/Documents/College/storage/3rd year/3rd 2 sem/soil-ml-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD7EFCBB559F784E7F55E10E59F0A36D5D0F42E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D42DA964-F511-459F-A5A0-88C85864DF63}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD7EFCBB559F784E7F55E10E59F0A36D5D0F42E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FC89BF-1BEC-495B-9927-7B889ADE4D54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,10 +203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3002"/>
+  <dimension ref="A1:D3001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2979" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3002" sqref="D3002"/>
+      <selection activeCell="G3005" sqref="G3005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -42231,20 +42231,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3002" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3002">
-        <v>665.69989869999995</v>
-      </c>
-      <c r="B3002">
-        <v>26.559646539999999</v>
-      </c>
-      <c r="C3002">
-        <v>54.282998689999999</v>
-      </c>
-      <c r="D3002">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
